--- a/Sus_Center_of_tire_patch.xlsx
+++ b/Sus_Center_of_tire_patch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/taiyangie-LinkageForceAnalyzer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFD85F-B4B0-CE4B-B846-1382BBDFAA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{506C3DC3-6090-1C42-AC75-DF7B39BE40B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="2000" windowWidth="13240" windowHeight="16940" xr2:uid="{AB61CF72-0097-0942-8756-56E0207239B9}"/>
   </bookViews>

--- a/Sus_Center_of_tire_patch.xlsx
+++ b/Sus_Center_of_tire_patch.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/Local_Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william_hess/Desktop/FSAE/taiyangie-LinkageForceAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{506C3DC3-6090-1C42-AC75-DF7B39BE40B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620E1A6-F772-4F4F-9C27-827579132DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="2000" windowWidth="13240" windowHeight="16940" xr2:uid="{AB61CF72-0097-0942-8756-56E0207239B9}"/>
+    <workbookView xWindow="8340" yWindow="820" windowWidth="13240" windowHeight="16940" xr2:uid="{AB61CF72-0097-0942-8756-56E0207239B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,16 +449,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>19.718699999999998</v>
+        <f>13.7315 + 15.0593</f>
+        <v>28.790800000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>19.718699999999998</v>
+        <f>13.7315 + 15.0593</f>
+        <v>28.790800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>80.366200000000006</v>
+        <f>74.303 + 15.0593</f>
+        <v>89.362300000000005</v>
       </c>
       <c r="E2" s="1">
-        <v>80.366200000000006</v>
+        <f>74.303 + 15.0593</f>
+        <v>89.362300000000005</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -466,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>-25.075500000000002</v>
+        <v>-23.7775</v>
       </c>
       <c r="C3" s="1">
-        <v>25.075500000000002</v>
+        <v>23.777519999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-23.882999999999999</v>
+        <v>-22.835000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>23.882999999999999</v>
+        <v>22.834990000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
